--- a/工作进展/AI算法与应用-2024工作进展 .xlsx
+++ b/工作进展/AI算法与应用-2024工作进展 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="007杨晨辉" sheetId="7" r:id="rId7"/>
     <sheet name="008胡梦圆" sheetId="9" r:id="rId8"/>
     <sheet name="009杨同学" sheetId="8" r:id="rId9"/>
+    <sheet name="010何思成" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="207">
   <si>
     <t>日期</t>
   </si>
@@ -709,6 +710,28 @@
 （2）筹备AI算法与应用源码逐行解读</t>
   </si>
   <si>
+    <t>20240520-20240527</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1. 基于多组学和深度学习探究帕金森生物标志物项目申请书撰写
+2. 自我学习
+（1）双周6道题答案整理</t>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）重要脑区计算并作图
+（2）与Allen脑基因数据做关联性分析并作图
+（3）与开源方法做比对
+2. 自我学习任务
+（1）完成双周6道题
+3. 其他任务
+（1）paper with code前沿与经典AI论文分享
+（2）筹备AI算法与应用源码逐行解读</t>
+  </si>
+  <si>
     <t>20240220-20240225</t>
   </si>
   <si>
@@ -843,16 +866,15 @@
     <t>看看结果是否理想，不然的话考虑是否将人工网络加入进来优化模型</t>
   </si>
   <si>
-    <t>20240520-20240527</t>
-  </si>
-  <si>
-    <t>1.将心脏数据集做了皮尔逊和斯皮尔曼等连接矩阵，加入了特征集，还有统计
-特征，单个的效果一般
-2.每个分类器都重复上述特征工程，给特征赋权重，每个分类器按照不同权重筛选
-不同特征作为集成学习</t>
-  </si>
-  <si>
-    <t>代码有问题，还没跑通</t>
+    <t>20240527-20240603</t>
+  </si>
+  <si>
+    <t>1.把皮尔逊系数，斯皮尔曼系数，肯德尔系数作为特征加入到原数据集，每个分类器
+依次做分类好特征筛选，再把分类器合并做集成学习</t>
+  </si>
+  <si>
+    <t>把三个系数全部合并再做筛选分类，
+调研心脏数据集的各个论文结果</t>
   </si>
   <si>
     <t>1. 部署
@@ -879,8 +901,74 @@
     - 单目标追踪算法流程优化</t>
   </si>
   <si>
+    <t>1.课题</t>
+  </si>
+  <si>
+    <t>1.暂无；</t>
+  </si>
+  <si>
+    <t>1.课题
+2.深度学习学习</t>
+  </si>
+  <si>
+    <t>1.暂无；
+2. 暂无；</t>
+  </si>
+  <si>
+    <t>20240520-20240526</t>
+  </si>
+  <si>
+    <t>1.	课题
+像素准确率的计算
+2.	自我学习</t>
+  </si>
+  <si>
+    <t>1.	准确率过低；
+2.	学习效率低</t>
+  </si>
+  <si>
+    <t>增大数据集</t>
+  </si>
+  <si>
     <t>1. python的视频学习
 2. 学校C语言课程</t>
+  </si>
+  <si>
+    <t>1.暂无</t>
+  </si>
+  <si>
+    <t>2.自我学习</t>
+  </si>
+  <si>
+    <t>2.自我学习
+3.机器学习小组汇报</t>
+  </si>
+  <si>
+    <t>2.自我学习
+3.python学习</t>
+  </si>
+  <si>
+    <t>1.暂无；
+2.暂无</t>
+  </si>
+  <si>
+    <t>20240527-20240604</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1.项目（GSVA数据分析）
+2.自我学习
+3.看文献</t>
+  </si>
+  <si>
+    <t>1.暂无
+2.暂无
+3.阅读缓慢</t>
+  </si>
+  <si>
+    <t>看文献，做复现</t>
   </si>
 </sst>
 </file>
@@ -893,9 +981,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1363,169 +1458,188 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1538,6 +1652,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1610,7 +1727,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5201285" cy="2984500"/>
+    <xdr:ext cx="5201285" cy="3081655"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="图片 5"/>
@@ -1627,7 +1744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3423285"/>
-          <a:ext cx="5201285" cy="2984500"/>
+          <a:ext cx="5201285" cy="3081655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,7 +1764,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2914650" cy="771525"/>
+    <xdr:ext cx="2914650" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6"/>
@@ -1664,7 +1781,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66675" y="6467475"/>
-          <a:ext cx="2914650" cy="771525"/>
+          <a:ext cx="2914650" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,7 +1801,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4953000" cy="3619500"/>
+    <xdr:ext cx="4953000" cy="3739515"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="图片 7"/>
@@ -1700,8 +1817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5229225" y="3419475"/>
-          <a:ext cx="4953000" cy="3619500"/>
+          <a:off x="5226050" y="3419475"/>
+          <a:ext cx="4953000" cy="3739515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1721,7 +1838,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6962775" cy="3629025"/>
+    <xdr:ext cx="6962775" cy="3749040"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="图片 8"/>
@@ -1737,8 +1854,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10239375" y="3429000"/>
-          <a:ext cx="6962775" cy="3629025"/>
+          <a:off x="10232390" y="3429000"/>
+          <a:ext cx="6962775" cy="3749040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,14 +2132,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="32.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2043,13 +2160,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2057,13 +2174,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2071,13 +2188,13 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2085,13 +2202,13 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2099,13 +2216,13 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2113,13 +2230,13 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2127,13 +2244,13 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2141,13 +2258,13 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2155,13 +2272,13 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2169,13 +2286,13 @@
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2183,13 +2300,13 @@
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2197,11 +2314,11 @@
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2209,13 +2326,13 @@
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2223,13 +2340,13 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2237,13 +2354,13 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2251,10 +2368,10 @@
       <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2262,10 +2379,10 @@
       <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2273,11 +2390,127 @@
       <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="55.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.5583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="28.5" spans="1:4">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:5">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2292,22 +2525,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="19.775" customWidth="1"/>
+    <col min="2" max="2" width="38.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.775" customWidth="1"/>
+    <col min="4" max="4" width="25.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2318,199 +2551,199 @@
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="28.5" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="57" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="28.5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="42.75" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="45.75" customHeight="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="71.25" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="28.5" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="28.5" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" ht="57" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" ht="42.75" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" ht="57" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2529,7 +2762,7 @@
       <c r="A17" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D17" t="s">
@@ -2548,13 +2781,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="26.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="47.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2578,7 +2811,7 @@
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C2" t="s">
@@ -2594,18 +2827,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="19.25" customWidth="1"/>
+    <col min="1" max="2" width="19.2166666666667" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="50.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2625,37 +2858,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="94.15" customHeight="1" spans="1:5">
+    <row r="2" ht="94.2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" ht="101.45" customHeight="1" spans="1:5">
+    <row r="3" ht="101.4" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2663,16 +2896,16 @@
       <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2680,16 +2913,16 @@
       <c r="A5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2697,13 +2930,13 @@
       <c r="A6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2711,14 +2944,31 @@
       <c r="A7" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="8" ht="128.25" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2732,153 +2982,153 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.775" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.2166666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>142</v>
+      <c r="A2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>144</v>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" ht="99.75" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" ht="42.75" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" ht="57" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" ht="99.75" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>157</v>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>159</v>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" ht="21.6" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>159</v>
+      <c r="B9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>159</v>
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2890,119 +3140,119 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.3333333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.1083333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.2166666666667" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.8833333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="46" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="85.5" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>164</v>
+      <c r="A2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="42.75" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>168</v>
+      <c r="A3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>172</v>
+      <c r="A4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="71.25" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>176</v>
+      <c r="A5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="28" ht="85" customHeight="1" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>179</v>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="29" ht="199" customHeight="1" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3018,15 +3268,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="22.775" customWidth="1"/>
+    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3050,45 +3300,45 @@
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="83.25" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>182</v>
+      <c r="E3" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" ht="114" spans="1:4">
       <c r="A4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3102,15 +3352,116 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="55.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.5583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="42.75" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="42.75" spans="1:5">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3126,8 +3477,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="20.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="26.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3151,16 +3502,16 @@
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作进展/AI算法与应用-2024工作进展 .xlsx
+++ b/工作进展/AI算法与应用-2024工作进展 .xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="216">
   <si>
     <t>日期</t>
   </si>
@@ -415,6 +415,16 @@
 3.补两周六道题</t>
   </si>
   <si>
+    <t>20240528-20240603</t>
+  </si>
+  <si>
+    <t>1.基于数据集的划分问题，调研文献
+2.结课论文</t>
+  </si>
+  <si>
+    <t>基于GCNET网络（结合non-local network的全局正下文建模优势和SENet轻量优势）应用在模型中，应用原始数据</t>
+  </si>
+  <si>
     <t>1.暂无进展
 2.Python课程及笔记</t>
   </si>
@@ -732,6 +742,29 @@
 （2）筹备AI算法与应用源码逐行解读</t>
   </si>
   <si>
+    <t>20240528-20240602</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）Grad-CAM激活图找到重要连接
+（2）重要连接和重要脑区计算并可视化
+2. 自我学习
+（1）医学AI论文分享ppt准备
+（2）双周6道题答案整理</t>
+  </si>
+  <si>
+    <t>1. ASD多站点分类
+（1）与Allen脑基因数据做关联性分析并作图
+（2）与开源方法做比对
+2. 自我学习任务
+（1）完成双周6道题
+3. 其他任务
+（1）筹备AI算法与应用源码逐行解读</t>
+  </si>
+  <si>
     <t>20240220-20240225</t>
   </si>
   <si>
@@ -875,6 +908,17 @@
   <si>
     <t>把三个系数全部合并再做筛选分类，
 调研心脏数据集的各个论文结果</t>
+  </si>
+  <si>
+    <t>20240603-20240611</t>
+  </si>
+  <si>
+    <t>1.统计各个文章的模型的指标
+2.在我的集成学习中增加了检验统计部分，增加了模型的可解释性
+3.把皮尔逊，斯皮尔曼，肯德尔系数都做了分类，</t>
+  </si>
+  <si>
+    <t>把模型用另一个数据集试一下</t>
   </si>
   <si>
     <t>1. 部署
@@ -953,9 +997,6 @@
   </si>
   <si>
     <t>20240527-20240604</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>1.项目（GSVA数据分析）
@@ -981,7 +1022,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,20 +1032,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1458,19 +1485,28 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,133 +1515,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1628,15 +1655,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1716,159 +1740,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5201285" cy="3081655"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3423285"/>
-          <a:ext cx="5201285" cy="3081655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2914650" cy="800100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="66675" y="6467475"/>
-          <a:ext cx="2914650" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3676650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4953000" cy="3739515"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5226050" y="3419475"/>
-          <a:ext cx="4953000" cy="3739515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6962775" cy="3749040"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10232390" y="3429000"/>
-          <a:ext cx="6962775" cy="3749040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2129,17 +2000,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="32.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="23.775" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2395,6 +2266,17 @@
       </c>
       <c r="D19" s="6" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="20" ht="71.25" spans="1:4">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2414,10 +2296,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="55.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2425,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2439,78 +2321,78 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>126</v>
+        <v>108</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="28.5" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>140</v>
+        <v>202</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:5">
       <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>203</v>
+        <v>212</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2530,10 +2412,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.775" customWidth="1"/>
-    <col min="2" max="2" width="38.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.775" customWidth="1"/>
-    <col min="4" max="4" width="25.775" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
@@ -2551,222 +2433,222 @@
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="28.5" spans="1:5">
-      <c r="A3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="13"/>
+      <c r="D3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" ht="57" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="28.5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="42.75" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="13"/>
+      <c r="D6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="45.75" customHeight="1" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="D7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" ht="71.25" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" ht="28.5" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" ht="28.5" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="57" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" ht="42.75" spans="1:4">
-      <c r="A12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>101</v>
       </c>
+      <c r="B12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" ht="42.75" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>103</v>
+      <c r="A13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:4">
-      <c r="A14" s="13" t="s">
-        <v>105</v>
+      <c r="A14" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="57" spans="1:4">
-      <c r="A15" s="13" t="s">
-        <v>108</v>
+      <c r="A15" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" ht="42.75" spans="1:4">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2786,8 +2668,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="47.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2795,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2809,13 +2691,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2827,18 +2709,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="19.2166666666667" customWidth="1"/>
+    <col min="1" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="50.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2846,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2858,117 +2740,134 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="94.2" customHeight="1" spans="1:5">
+    <row r="2" ht="94.15" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" ht="101.45" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" ht="101.4" customHeight="1" spans="1:5">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="120.75" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>126</v>
+        <v>108</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="123.75" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
         <v>131</v>
       </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="117.75" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="160.5" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="128.25" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>142</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" ht="108.75" customHeight="1" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2988,10 +2887,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.775" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.2166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
@@ -3010,16 +2909,16 @@
     </row>
     <row r="2" ht="42.75" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:4">
@@ -3027,108 +2926,108 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="99.75" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" ht="21.6" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3140,18 +3039,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.3333333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="65.1083333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.2166666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="34.8833333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="46" style="8" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
@@ -3172,68 +3071,81 @@
     </row>
     <row r="2" ht="85.5" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" ht="42.75" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" ht="71.25" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" ht="152.25" customHeight="1" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" ht="87" customHeight="1" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4">
@@ -3244,21 +3156,9 @@
     <row r="18" spans="2:2">
       <c r="B18" s="9"/>
     </row>
-    <row r="29" ht="199" customHeight="1" spans="1:3">
-      <c r="A29" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3273,10 +3173,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.775" customWidth="1"/>
-    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3284,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3298,48 +3198,48 @@
     </row>
     <row r="2" ht="158.25" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" ht="83.25" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" ht="114" spans="1:4">
       <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3360,10 +3260,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="55.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3371,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3385,64 +3285,64 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>126</v>
+        <v>108</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" ht="28.5" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="42.75" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>140</v>
+        <v>202</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="4:5">
@@ -3477,8 +3377,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="26.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3486,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3500,16 +3400,16 @@
     </row>
     <row r="2" ht="55.5" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E2" s="6"/>
     </row>

--- a/工作进展/AI算法与应用-2024工作进展 .xlsx
+++ b/工作进展/AI算法与应用-2024工作进展 .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="221">
   <si>
     <t>日期</t>
   </si>
@@ -923,6 +923,23 @@
     <t>画图有点困难，很多工具不会用</t>
   </si>
   <si>
+    <t>20240702-20240709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">把数据全部整理了，优化了参数部分和结果
+想把雾凇优化算法加入但是没有成功，改用另外一种降维算法，开始写论文
+</t>
+  </si>
+  <si>
+    <t>论文的书写有点困难</t>
+  </si>
+  <si>
+    <t>20240709-20240715</t>
+  </si>
+  <si>
+    <t>用降维算法验证两个不同样本的相似性，将两个样本成功合并</t>
+  </si>
+  <si>
     <t>1.课题</t>
   </si>
   <si>
@@ -1014,7 +1031,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,20 +1041,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1491,19 +1494,28 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1512,133 +1524,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1661,12 +1664,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2008,7 +2014,7 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A24" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2359,174 +2365,174 @@
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="28.5" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="57" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="28.5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="42.75" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="45.75" customHeight="1" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="71.25" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="28.5" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="28.5" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" ht="57" spans="1:5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" ht="42.75" spans="1:4">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:4">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2534,18 +2540,18 @@
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" ht="57" spans="1:4">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2621,7 +2627,7 @@
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>131</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2638,7 +2644,7 @@
       <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>135</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2655,7 +2661,7 @@
       <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2672,7 +2678,7 @@
       <c r="A5" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2689,7 +2695,7 @@
       <c r="A6" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2703,7 +2709,7 @@
       <c r="A7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2714,27 +2720,27 @@
       </c>
     </row>
     <row r="8" ht="128.25" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" ht="108.75" customHeight="1" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2748,10 +2754,10 @@
       </c>
     </row>
     <row r="10" ht="177" customHeight="1" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>160</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2775,8 +2781,8 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2910,6 +2916,25 @@
       </c>
       <c r="D9" s="8" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -2959,14 +2984,14 @@
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2974,14 +2999,14 @@
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2989,11 +3014,11 @@
       <c r="A4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>133</v>
@@ -3002,49 +3027,49 @@
     </row>
     <row r="5" ht="42.75" spans="1:5">
       <c r="A5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="5:5">
@@ -3098,14 +3123,14 @@
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -3113,14 +3138,14 @@
       <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3128,46 +3153,46 @@
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="28.5" spans="1:4">
       <c r="A5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" ht="42.75" spans="1:5">
       <c r="A6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/工作进展/AI算法与应用-2024工作进展 .xlsx
+++ b/工作进展/AI算法与应用-2024工作进展 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86181\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAF6B0-77AA-4372-8502-A4D7BD03435C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001毛彬" sheetId="2" r:id="rId1"/>
@@ -23,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="223">
   <si>
     <t>日期</t>
   </si>
@@ -1020,18 +1024,20 @@
   <si>
     <t>看文献，做复现</t>
   </si>
+  <si>
+    <t>20240709-20240715</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAN网络的学习研究，看看能不能用于波动方程的求解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,345 +1053,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1393,255 +1097,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1664,11 +1126,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1688,67 +1150,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 2 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2006,26 +1431,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="128.25" spans="1:4">
+    <row r="2" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +1478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="199.5" spans="1:4">
+    <row r="3" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +1492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="114" spans="1:4">
+    <row r="4" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +1506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="142.5" spans="1:4">
+    <row r="5" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2095,7 +1520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="156.75" spans="1:4">
+    <row r="6" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2109,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="156.75" spans="1:4">
+    <row r="7" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2123,7 +1548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="142.5" spans="1:4">
+    <row r="8" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2137,7 +1562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="256.5" spans="1:4">
+    <row r="9" spans="1:4" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2151,7 +1576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="99.75" spans="1:4">
+    <row r="10" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2165,7 +1590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="99.75" spans="1:4">
+    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2179,7 +1604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="85.5" spans="1:4">
+    <row r="12" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2193,7 +1618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="85.5" spans="1:4">
+    <row r="13" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2205,7 +1630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="99.75" spans="1:4">
+    <row r="14" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2219,7 +1644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" ht="106.5" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2233,7 +1658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" ht="128.25" spans="1:4">
+    <row r="16" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2247,7 +1672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="49.5" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2258,7 +1683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" ht="99.75" spans="1:4">
+    <row r="18" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2269,7 +1694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" ht="57" spans="1:4">
+    <row r="19" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2280,7 +1705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" ht="71.25" spans="1:4">
+    <row r="20" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2291,7 +1716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" ht="42.75" spans="1:4">
+    <row r="21" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -2302,7 +1727,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="1:4">
+    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2313,7 +1738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" ht="71.25" spans="1:4">
+    <row r="23" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2328,29 +1753,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:4">
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:5">
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +1803,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="28.5" spans="1:5">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>84</v>
       </c>
@@ -2394,7 +1818,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" ht="57" spans="1:5">
+    <row r="4" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>87</v>
       </c>
@@ -2409,7 +1833,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" ht="28.5" spans="1:5">
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +1848,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" ht="42.75" spans="1:5">
+    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -2439,7 +1863,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" ht="45.75" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>94</v>
       </c>
@@ -2454,7 +1878,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="71.25" spans="1:5">
+    <row r="8" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>97</v>
       </c>
@@ -2469,7 +1893,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="28.5" spans="1:5">
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>100</v>
       </c>
@@ -2484,7 +1908,7 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="28.5" spans="1:5">
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>103</v>
       </c>
@@ -2499,7 +1923,7 @@
       </c>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" ht="57" spans="1:5">
+    <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>107</v>
       </c>
@@ -2514,7 +1938,7 @@
       </c>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" ht="42.75" spans="1:4">
+    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>111</v>
       </c>
@@ -2528,7 +1952,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" ht="42.75" spans="1:4">
+    <row r="13" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>115</v>
       </c>
@@ -2539,7 +1963,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:4">
+    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>118</v>
       </c>
@@ -2550,7 +1974,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" ht="57" spans="1:4">
+    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
@@ -2561,7 +1985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2572,7 +1996,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" ht="42.75" spans="1:4">
+    <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -2584,29 +2008,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E$1:E$1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E7" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.25" customWidth="1"/>
+    <col min="1" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="94.15" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2640,7 +2063,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" ht="101.45" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2657,7 +2080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" ht="120.75" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2674,7 +2097,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" ht="123.75" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -2691,7 +2114,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" ht="117.75" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -2705,7 +2128,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" ht="160.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -2719,7 +2142,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" ht="128.25" spans="1:5">
+    <row r="8" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>151</v>
       </c>
@@ -2736,7 +2159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" ht="108.75" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>155</v>
       </c>
@@ -2753,7 +2176,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" ht="177" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>159</v>
       </c>
@@ -2771,31 +2194,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="8" customWidth="1"/>
     <col min="5" max="5" width="46" style="8" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="85.5" spans="1:4">
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>163</v>
       </c>
@@ -2823,7 +2245,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:4">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>167</v>
       </c>
@@ -2837,7 +2259,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" ht="42.75" spans="1:4">
+    <row r="4" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>171</v>
       </c>
@@ -2851,7 +2273,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" ht="71.25" spans="1:4">
+    <row r="5" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>175</v>
       </c>
@@ -2865,7 +2287,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" ht="152.25" customHeight="1" spans="1:3">
+    <row r="6" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>179</v>
       </c>
@@ -2876,7 +2298,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" ht="54" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>182</v>
       </c>
@@ -2890,7 +2312,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:4">
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>186</v>
       </c>
@@ -2904,7 +2326,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>190</v>
       </c>
@@ -2918,7 +2340,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" ht="42.75" spans="1:3">
+    <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>193</v>
       </c>
@@ -2929,7 +2351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>196</v>
       </c>
@@ -2937,33 +2359,32 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -2995,7 +2416,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="28.5" spans="1:5">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -3010,7 +2431,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="42.75" spans="1:5">
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>144</v>
       </c>
@@ -3025,7 +2446,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="42.75" spans="1:5">
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -3042,7 +2463,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>206</v>
       </c>
@@ -3055,7 +2476,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -3072,37 +2493,43 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>222</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +2546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
@@ -3134,7 +2561,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
@@ -3149,7 +2576,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="28.5" spans="1:5">
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -3164,7 +2591,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="28.5" spans="1:4">
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -3178,7 +2605,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" ht="42.75" spans="1:5">
+    <row r="6" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -3196,7 +2623,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>